--- a/plsystem/uploads/新建 Microsoft Excel 工作表.xlsx
+++ b/plsystem/uploads/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29920\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60882385-0ED0-4673-A973-EA3920F3E041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F724FC9C-2FC4-4BEB-BB50-2DB984F730BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+  <si>
+    <t>invigilateId</t>
+  </si>
+  <si>
+    <t>examDate</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dayOfWeek</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>campus</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>seatCount</t>
+  </si>
+  <si>
+    <t>studentCount</t>
+  </si>
+  <si>
+    <t>courseCode</t>
+  </si>
+  <si>
+    <t>courseName</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>teacherName</t>
+  </si>
+  <si>
+    <t>mainInvigilator</t>
+  </si>
+  <si>
+    <t>deputyInvigilator</t>
+  </si>
+  <si>
+    <t>mainInvigilatorCount</t>
+  </si>
+  <si>
+    <t>deputyInvigilatorCount</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3教</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>数学Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济管理学院</t>
+  </si>
+  <si>
+    <t>老师名字</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发布</t>
+  </si>
+  <si>
+    <t>4教</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>英语a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +151,17 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,9 +200,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,157 +488,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>23311</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:21">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23311</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plsystem/uploads/新建 Microsoft Excel 工作表.xlsx
+++ b/plsystem/uploads/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29920\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F724FC9C-2FC4-4BEB-BB50-2DB984F730BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949301C3-52D2-4C68-BAA7-3983EAFF7F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -208,6 +214,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,7 +500,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -517,7 +526,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -583,7 +592,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>45292</v>
@@ -648,7 +657,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>45293</v>
